--- a/設計書/詳細設計/画面遷移図.xlsx
+++ b/設計書/詳細設計/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579E6EEC-F6BB-4162-A3BD-5974AD995E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E6FD47-D573-4D8A-91DB-D518F4030444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -155,6 +155,25 @@
   </si>
   <si>
     <t>共有ToDoListシステム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Rev 1.01</t>
+  </si>
+  <si>
+    <t>削除画面、変更画面にマイページリンク追加、メインページからログアウト追加</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -970,6 +989,223 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>242109</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64313</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48586A58-23E0-4F4E-9428-1C571E62D237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59021" t="48654" r="39322" b="43896"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="6828247">
+          <a:off x="5706477" y="2760721"/>
+          <a:ext cx="209168" cy="450854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10526</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>174795</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5C2EA7-D460-486E-B0B0-2BDACC039294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="59021" t="48654" r="39322" b="43896"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4411076" y="2971800"/>
+          <a:ext cx="164269" cy="354076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0090F7-7D03-4626-8B9C-B1E283888C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="42951" t="43041" r="45430" b="54854"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2286000" y="1438275"/>
+          <a:ext cx="1466850" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91943E6-910B-E9DD-916F-73EED09E1DBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533651" y="1600199"/>
+          <a:ext cx="952500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1272,7 +1508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
@@ -2272,15 +2510,21 @@
     </row>
     <row r="26" spans="1:32" ht="12.95" customHeight="1">
       <c r="A26" s="19"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
+      <c r="F26" s="36">
+        <v>45944</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
@@ -2299,8 +2543,12 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="10"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="10"/>
+      <c r="AC26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD26" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="21"/>
     </row>
@@ -2849,11 +3097,12 @@
       <c r="AF42" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="L16:U18"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="F26:I26"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -2871,7 +3120,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
